--- a/网页爬虫脚本/高考教育院校id_map_表.xlsx
+++ b/网页爬虫脚本/高考教育院校id_map_表.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1389</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4221,14 +4221,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4684,28 +4677,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4714,118 +4710,115 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5177,10 +5170,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C1389"/>
+  <dimension ref="A1:C2919"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -5188,7 +5181,7 @@
     <col min="1" max="1" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" ht="15" customHeight="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20467,10 +20460,1037 @@
         <v>15</v>
       </c>
     </row>
+    <row r="1562" hidden="1"/>
+    <row r="1564" hidden="1"/>
+    <row r="1565" hidden="1"/>
+    <row r="1566" hidden="1"/>
+    <row r="1567" hidden="1"/>
+    <row r="1568" hidden="1"/>
+    <row r="1569" hidden="1"/>
+    <row r="1570" hidden="1"/>
+    <row r="1571" hidden="1"/>
+    <row r="1572" hidden="1"/>
+    <row r="1573" hidden="1"/>
+    <row r="1574" hidden="1"/>
+    <row r="1575" hidden="1"/>
+    <row r="1576" hidden="1"/>
+    <row r="1577" hidden="1"/>
+    <row r="1578" hidden="1"/>
+    <row r="1579" hidden="1"/>
+    <row r="1580" hidden="1"/>
+    <row r="1581" hidden="1"/>
+    <row r="1582" hidden="1"/>
+    <row r="1583" hidden="1"/>
+    <row r="1584" hidden="1"/>
+    <row r="1585" hidden="1"/>
+    <row r="1586" hidden="1"/>
+    <row r="1587" hidden="1"/>
+    <row r="1588" hidden="1"/>
+    <row r="1589" hidden="1"/>
+    <row r="1590" hidden="1"/>
+    <row r="1591" hidden="1"/>
+    <row r="1592" hidden="1"/>
+    <row r="1593" hidden="1"/>
+    <row r="1595" hidden="1"/>
+    <row r="1596" hidden="1"/>
+    <row r="1597" hidden="1"/>
+    <row r="1598" hidden="1"/>
+    <row r="1600" hidden="1"/>
+    <row r="1601" hidden="1"/>
+    <row r="1602" hidden="1"/>
+    <row r="1603" hidden="1"/>
+    <row r="1604" hidden="1"/>
+    <row r="1605" hidden="1"/>
+    <row r="1606" hidden="1"/>
+    <row r="1607" hidden="1"/>
+    <row r="1608" hidden="1"/>
+    <row r="1609" hidden="1"/>
+    <row r="1610" hidden="1"/>
+    <row r="1611" hidden="1"/>
+    <row r="1612" hidden="1"/>
+    <row r="1613" hidden="1"/>
+    <row r="1614" hidden="1"/>
+    <row r="1615" hidden="1"/>
+    <row r="1616" hidden="1"/>
+    <row r="1617" hidden="1"/>
+    <row r="1618" hidden="1"/>
+    <row r="1619" hidden="1"/>
+    <row r="1620" hidden="1"/>
+    <row r="1621" hidden="1"/>
+    <row r="1622" hidden="1"/>
+    <row r="1623" hidden="1"/>
+    <row r="1624" hidden="1"/>
+    <row r="1625" hidden="1"/>
+    <row r="1626" hidden="1"/>
+    <row r="1627" hidden="1"/>
+    <row r="1628" hidden="1"/>
+    <row r="1629" hidden="1"/>
+    <row r="1630" hidden="1"/>
+    <row r="1631" hidden="1"/>
+    <row r="1632" hidden="1"/>
+    <row r="1633" hidden="1"/>
+    <row r="1634" hidden="1"/>
+    <row r="1635" hidden="1"/>
+    <row r="1636" hidden="1"/>
+    <row r="1637" hidden="1"/>
+    <row r="1638" hidden="1"/>
+    <row r="1639" hidden="1"/>
+    <row r="1640" hidden="1"/>
+    <row r="1641" hidden="1"/>
+    <row r="1642" hidden="1"/>
+    <row r="1648" hidden="1"/>
+    <row r="1653" hidden="1"/>
+    <row r="1655" hidden="1"/>
+    <row r="1683" hidden="1"/>
+    <row r="1684" hidden="1"/>
+    <row r="1685" hidden="1"/>
+    <row r="1686" hidden="1"/>
+    <row r="1687" hidden="1"/>
+    <row r="1688" hidden="1"/>
+    <row r="1689" hidden="1"/>
+    <row r="1690" hidden="1"/>
+    <row r="1691" hidden="1"/>
+    <row r="1692" hidden="1"/>
+    <row r="1693" hidden="1"/>
+    <row r="1694" hidden="1"/>
+    <row r="1695" hidden="1"/>
+    <row r="1696" hidden="1"/>
+    <row r="1697" hidden="1"/>
+    <row r="1698" hidden="1"/>
+    <row r="1699" hidden="1"/>
+    <row r="1700" hidden="1"/>
+    <row r="1701" hidden="1"/>
+    <row r="1702" hidden="1"/>
+    <row r="1703" hidden="1"/>
+    <row r="1704" hidden="1"/>
+    <row r="1705" hidden="1"/>
+    <row r="1706" hidden="1"/>
+    <row r="1707" hidden="1"/>
+    <row r="1708" hidden="1"/>
+    <row r="1709" hidden="1"/>
+    <row r="1710" hidden="1"/>
+    <row r="1711" hidden="1"/>
+    <row r="1712" hidden="1"/>
+    <row r="1713" hidden="1"/>
+    <row r="1714" hidden="1"/>
+    <row r="1715" hidden="1"/>
+    <row r="1716" hidden="1"/>
+    <row r="1717" hidden="1"/>
+    <row r="1718" hidden="1"/>
+    <row r="1719" hidden="1"/>
+    <row r="1720" hidden="1"/>
+    <row r="1721" hidden="1"/>
+    <row r="1722" hidden="1"/>
+    <row r="1723" hidden="1"/>
+    <row r="1724" hidden="1"/>
+    <row r="1725" hidden="1"/>
+    <row r="1726" hidden="1"/>
+    <row r="1727" hidden="1"/>
+    <row r="1728" hidden="1"/>
+    <row r="1729" hidden="1"/>
+    <row r="1730" hidden="1"/>
+    <row r="1731" hidden="1"/>
+    <row r="1732" hidden="1"/>
+    <row r="1733" hidden="1"/>
+    <row r="1734" hidden="1"/>
+    <row r="1735" hidden="1"/>
+    <row r="1736" hidden="1"/>
+    <row r="1737" hidden="1"/>
+    <row r="1740" hidden="1"/>
+    <row r="1741" hidden="1"/>
+    <row r="1743" hidden="1"/>
+    <row r="1744" hidden="1"/>
+    <row r="1750" hidden="1"/>
+    <row r="1761" hidden="1"/>
+    <row r="1762" hidden="1"/>
+    <row r="1763" hidden="1"/>
+    <row r="1764" hidden="1"/>
+    <row r="1765" hidden="1"/>
+    <row r="1766" hidden="1"/>
+    <row r="1774" hidden="1"/>
+    <row r="1784" hidden="1"/>
+    <row r="1790" hidden="1"/>
+    <row r="1794" hidden="1"/>
+    <row r="1795" hidden="1"/>
+    <row r="1796" hidden="1"/>
+    <row r="1798" hidden="1"/>
+    <row r="1799" hidden="1"/>
+    <row r="1800" hidden="1"/>
+    <row r="1801" hidden="1"/>
+    <row r="1802" hidden="1"/>
+    <row r="1803" hidden="1"/>
+    <row r="1804" hidden="1"/>
+    <row r="1805" hidden="1"/>
+    <row r="1806" hidden="1"/>
+    <row r="1807" hidden="1"/>
+    <row r="1808" hidden="1"/>
+    <row r="1809" hidden="1"/>
+    <row r="1810" hidden="1"/>
+    <row r="1811" hidden="1"/>
+    <row r="1812" hidden="1"/>
+    <row r="1814" hidden="1"/>
+    <row r="1815" hidden="1"/>
+    <row r="1818" hidden="1"/>
+    <row r="1820" hidden="1"/>
+    <row r="1821" hidden="1"/>
+    <row r="1824" hidden="1"/>
+    <row r="1825" hidden="1"/>
+    <row r="1828" hidden="1"/>
+    <row r="1829" hidden="1"/>
+    <row r="1830" hidden="1"/>
+    <row r="1831" hidden="1"/>
+    <row r="1832" hidden="1"/>
+    <row r="1833" hidden="1"/>
+    <row r="1834" hidden="1"/>
+    <row r="1835" hidden="1"/>
+    <row r="1836" hidden="1"/>
+    <row r="1837" hidden="1"/>
+    <row r="1838" hidden="1"/>
+    <row r="1839" hidden="1"/>
+    <row r="1840" hidden="1"/>
+    <row r="1841" hidden="1"/>
+    <row r="1842" hidden="1"/>
+    <row r="1843" hidden="1"/>
+    <row r="1844" hidden="1"/>
+    <row r="1845" hidden="1"/>
+    <row r="1846" hidden="1"/>
+    <row r="1847" hidden="1"/>
+    <row r="1848" hidden="1"/>
+    <row r="1849" hidden="1"/>
+    <row r="1850" hidden="1"/>
+    <row r="1851" hidden="1"/>
+    <row r="1852" hidden="1"/>
+    <row r="1853" hidden="1"/>
+    <row r="1854" hidden="1"/>
+    <row r="1855" hidden="1"/>
+    <row r="1856" hidden="1"/>
+    <row r="1857" hidden="1"/>
+    <row r="1858" hidden="1"/>
+    <row r="1859" hidden="1"/>
+    <row r="1860" hidden="1"/>
+    <row r="1861" hidden="1"/>
+    <row r="1862" hidden="1"/>
+    <row r="1863" hidden="1"/>
+    <row r="1864" hidden="1"/>
+    <row r="1865" hidden="1"/>
+    <row r="1867" hidden="1"/>
+    <row r="1868" hidden="1"/>
+    <row r="1869" hidden="1"/>
+    <row r="1870" hidden="1"/>
+    <row r="1871" hidden="1"/>
+    <row r="1872" hidden="1"/>
+    <row r="1873" hidden="1"/>
+    <row r="1874" hidden="1"/>
+    <row r="1875" hidden="1"/>
+    <row r="1876" hidden="1"/>
+    <row r="1877" hidden="1"/>
+    <row r="1878" hidden="1"/>
+    <row r="1879" hidden="1"/>
+    <row r="1880" hidden="1"/>
+    <row r="1881" hidden="1"/>
+    <row r="1882" hidden="1"/>
+    <row r="1883" hidden="1"/>
+    <row r="1884" hidden="1"/>
+    <row r="1885" hidden="1"/>
+    <row r="1886" hidden="1"/>
+    <row r="1887" hidden="1"/>
+    <row r="1888" hidden="1"/>
+    <row r="1889" hidden="1"/>
+    <row r="1890" hidden="1"/>
+    <row r="1891" hidden="1"/>
+    <row r="1892" hidden="1"/>
+    <row r="1893" hidden="1"/>
+    <row r="1894" hidden="1"/>
+    <row r="1895" hidden="1"/>
+    <row r="1896" hidden="1"/>
+    <row r="1897" hidden="1"/>
+    <row r="1899" hidden="1"/>
+    <row r="1900" hidden="1"/>
+    <row r="1901" hidden="1"/>
+    <row r="1903" hidden="1"/>
+    <row r="1905" hidden="1"/>
+    <row r="1906" hidden="1"/>
+    <row r="1907" hidden="1"/>
+    <row r="1908" hidden="1"/>
+    <row r="1909" hidden="1"/>
+    <row r="1910" hidden="1"/>
+    <row r="1911" hidden="1"/>
+    <row r="1912" hidden="1"/>
+    <row r="1913" hidden="1"/>
+    <row r="1915" hidden="1"/>
+    <row r="1916" hidden="1"/>
+    <row r="1917" hidden="1"/>
+    <row r="1918" hidden="1"/>
+    <row r="1919" hidden="1"/>
+    <row r="1920" hidden="1"/>
+    <row r="1921" hidden="1"/>
+    <row r="1922" hidden="1"/>
+    <row r="1923" hidden="1"/>
+    <row r="1924" hidden="1"/>
+    <row r="1925" hidden="1"/>
+    <row r="1926" hidden="1"/>
+    <row r="1927" hidden="1"/>
+    <row r="1928" hidden="1"/>
+    <row r="1929" hidden="1"/>
+    <row r="1930" hidden="1"/>
+    <row r="1931" hidden="1"/>
+    <row r="1932" hidden="1"/>
+    <row r="1933" hidden="1"/>
+    <row r="1934" hidden="1"/>
+    <row r="1935" hidden="1"/>
+    <row r="1936" hidden="1"/>
+    <row r="1937" hidden="1"/>
+    <row r="1938" hidden="1"/>
+    <row r="1939" hidden="1"/>
+    <row r="1940" hidden="1"/>
+    <row r="1941" hidden="1"/>
+    <row r="1942" hidden="1"/>
+    <row r="1943" hidden="1"/>
+    <row r="1945" hidden="1"/>
+    <row r="1946" hidden="1"/>
+    <row r="1947" hidden="1"/>
+    <row r="1948" hidden="1"/>
+    <row r="1949" hidden="1"/>
+    <row r="1950" hidden="1"/>
+    <row r="1951" hidden="1"/>
+    <row r="1952" hidden="1"/>
+    <row r="1953" hidden="1"/>
+    <row r="1954" hidden="1"/>
+    <row r="1955" hidden="1"/>
+    <row r="1956" hidden="1"/>
+    <row r="1957" hidden="1"/>
+    <row r="1958" hidden="1"/>
+    <row r="1959" hidden="1"/>
+    <row r="1960" hidden="1"/>
+    <row r="1961" hidden="1"/>
+    <row r="1962" hidden="1"/>
+    <row r="1963" hidden="1"/>
+    <row r="1966" hidden="1"/>
+    <row r="1967" hidden="1"/>
+    <row r="1968" hidden="1"/>
+    <row r="1971" hidden="1"/>
+    <row r="1972" hidden="1"/>
+    <row r="1973" hidden="1"/>
+    <row r="1974" hidden="1"/>
+    <row r="1975" hidden="1"/>
+    <row r="1976" hidden="1"/>
+    <row r="1977" hidden="1"/>
+    <row r="1978" hidden="1"/>
+    <row r="1979" hidden="1"/>
+    <row r="1980" hidden="1"/>
+    <row r="1981" hidden="1"/>
+    <row r="1982" hidden="1"/>
+    <row r="1983" hidden="1"/>
+    <row r="1984" hidden="1"/>
+    <row r="1985" hidden="1"/>
+    <row r="1986" hidden="1"/>
+    <row r="1987" hidden="1"/>
+    <row r="1988" hidden="1"/>
+    <row r="1989" hidden="1"/>
+    <row r="1990" hidden="1"/>
+    <row r="1991" hidden="1"/>
+    <row r="1992" hidden="1"/>
+    <row r="1993" hidden="1"/>
+    <row r="1994" hidden="1"/>
+    <row r="1995" hidden="1"/>
+    <row r="1996" hidden="1"/>
+    <row r="1997" hidden="1"/>
+    <row r="1998" hidden="1"/>
+    <row r="1999" hidden="1"/>
+    <row r="2000" hidden="1"/>
+    <row r="2001" hidden="1"/>
+    <row r="2002" hidden="1"/>
+    <row r="2003" hidden="1"/>
+    <row r="2004" hidden="1"/>
+    <row r="2005" hidden="1"/>
+    <row r="2006" hidden="1"/>
+    <row r="2007" hidden="1"/>
+    <row r="2008" hidden="1"/>
+    <row r="2009" hidden="1"/>
+    <row r="2010" hidden="1"/>
+    <row r="2011" hidden="1"/>
+    <row r="2012" hidden="1"/>
+    <row r="2013" hidden="1"/>
+    <row r="2014" hidden="1"/>
+    <row r="2015" hidden="1"/>
+    <row r="2016" hidden="1"/>
+    <row r="2017" hidden="1"/>
+    <row r="2018" hidden="1"/>
+    <row r="2019" hidden="1"/>
+    <row r="2020" hidden="1"/>
+    <row r="2021" hidden="1"/>
+    <row r="2022" hidden="1"/>
+    <row r="2023" hidden="1"/>
+    <row r="2024" hidden="1"/>
+    <row r="2025" hidden="1"/>
+    <row r="2026" hidden="1"/>
+    <row r="2027" hidden="1"/>
+    <row r="2028" hidden="1"/>
+    <row r="2029" hidden="1"/>
+    <row r="2030" hidden="1"/>
+    <row r="2031" hidden="1"/>
+    <row r="2032" hidden="1"/>
+    <row r="2033" hidden="1"/>
+    <row r="2034" hidden="1"/>
+    <row r="2035" hidden="1"/>
+    <row r="2036" hidden="1"/>
+    <row r="2037" hidden="1"/>
+    <row r="2038" hidden="1"/>
+    <row r="2039" hidden="1"/>
+    <row r="2040" hidden="1"/>
+    <row r="2041" hidden="1"/>
+    <row r="2042" hidden="1"/>
+    <row r="2043" hidden="1"/>
+    <row r="2044" hidden="1"/>
+    <row r="2045" hidden="1"/>
+    <row r="2046" hidden="1"/>
+    <row r="2047" hidden="1"/>
+    <row r="2048" hidden="1"/>
+    <row r="2049" hidden="1"/>
+    <row r="2050" hidden="1"/>
+    <row r="2051" hidden="1"/>
+    <row r="2052" hidden="1"/>
+    <row r="2053" hidden="1"/>
+    <row r="2054" hidden="1"/>
+    <row r="2061" hidden="1"/>
+    <row r="2062" hidden="1"/>
+    <row r="2063" hidden="1"/>
+    <row r="2064" hidden="1"/>
+    <row r="2065" hidden="1"/>
+    <row r="2067" hidden="1"/>
+    <row r="2068" hidden="1"/>
+    <row r="2069" hidden="1"/>
+    <row r="2071" hidden="1"/>
+    <row r="2075" hidden="1"/>
+    <row r="2077" hidden="1"/>
+    <row r="2078" hidden="1"/>
+    <row r="2087" hidden="1"/>
+    <row r="2094" hidden="1"/>
+    <row r="2095" hidden="1"/>
+    <row r="2096" hidden="1"/>
+    <row r="2097" hidden="1"/>
+    <row r="2098" hidden="1"/>
+    <row r="2099" hidden="1"/>
+    <row r="2100" hidden="1"/>
+    <row r="2103" hidden="1"/>
+    <row r="2105" hidden="1"/>
+    <row r="2106" hidden="1"/>
+    <row r="2107" hidden="1"/>
+    <row r="2109" hidden="1"/>
+    <row r="2110" hidden="1"/>
+    <row r="2111" hidden="1"/>
+    <row r="2112" hidden="1"/>
+    <row r="2113" hidden="1"/>
+    <row r="2116" hidden="1"/>
+    <row r="2117" hidden="1"/>
+    <row r="2118" hidden="1"/>
+    <row r="2119" hidden="1"/>
+    <row r="2120" hidden="1"/>
+    <row r="2121" hidden="1"/>
+    <row r="2122" hidden="1"/>
+    <row r="2123" hidden="1"/>
+    <row r="2125" hidden="1"/>
+    <row r="2128" hidden="1"/>
+    <row r="2134" hidden="1"/>
+    <row r="2140" hidden="1"/>
+    <row r="2141" hidden="1"/>
+    <row r="2142" hidden="1"/>
+    <row r="2143" hidden="1"/>
+    <row r="2144" hidden="1"/>
+    <row r="2145" hidden="1"/>
+    <row r="2146" hidden="1"/>
+    <row r="2147" hidden="1"/>
+    <row r="2159" hidden="1"/>
+    <row r="2161" hidden="1"/>
+    <row r="2162" hidden="1"/>
+    <row r="2163" hidden="1"/>
+    <row r="2164" hidden="1"/>
+    <row r="2167" hidden="1"/>
+    <row r="2168" hidden="1"/>
+    <row r="2169" hidden="1"/>
+    <row r="2170" hidden="1"/>
+    <row r="2171" hidden="1"/>
+    <row r="2172" hidden="1"/>
+    <row r="2174" hidden="1"/>
+    <row r="2175" hidden="1"/>
+    <row r="2176" hidden="1"/>
+    <row r="2178" hidden="1"/>
+    <row r="2180" hidden="1"/>
+    <row r="2181" hidden="1"/>
+    <row r="2182" hidden="1"/>
+    <row r="2183" hidden="1"/>
+    <row r="2184" hidden="1"/>
+    <row r="2185" hidden="1"/>
+    <row r="2186" hidden="1"/>
+    <row r="2187" hidden="1"/>
+    <row r="2188" hidden="1"/>
+    <row r="2189" hidden="1"/>
+    <row r="2190" hidden="1"/>
+    <row r="2191" hidden="1"/>
+    <row r="2192" hidden="1"/>
+    <row r="2193" hidden="1"/>
+    <row r="2194" hidden="1"/>
+    <row r="2195" hidden="1"/>
+    <row r="2196" hidden="1"/>
+    <row r="2197" hidden="1"/>
+    <row r="2198" hidden="1"/>
+    <row r="2199" hidden="1"/>
+    <row r="2200" hidden="1"/>
+    <row r="2201" hidden="1"/>
+    <row r="2202" hidden="1"/>
+    <row r="2203" hidden="1"/>
+    <row r="2204" hidden="1"/>
+    <row r="2205" hidden="1"/>
+    <row r="2206" hidden="1"/>
+    <row r="2207" hidden="1"/>
+    <row r="2208" hidden="1"/>
+    <row r="2209" hidden="1"/>
+    <row r="2210" hidden="1"/>
+    <row r="2211" hidden="1"/>
+    <row r="2212" hidden="1"/>
+    <row r="2213" hidden="1"/>
+    <row r="2214" hidden="1"/>
+    <row r="2215" hidden="1"/>
+    <row r="2216" hidden="1"/>
+    <row r="2218" hidden="1"/>
+    <row r="2219" hidden="1"/>
+    <row r="2220" hidden="1"/>
+    <row r="2221" hidden="1"/>
+    <row r="2222" hidden="1"/>
+    <row r="2223" hidden="1"/>
+    <row r="2224" hidden="1"/>
+    <row r="2225" hidden="1"/>
+    <row r="2226" hidden="1"/>
+    <row r="2228" hidden="1"/>
+    <row r="2229" hidden="1"/>
+    <row r="2230" hidden="1"/>
+    <row r="2231" hidden="1"/>
+    <row r="2232" hidden="1"/>
+    <row r="2237" hidden="1"/>
+    <row r="2239" hidden="1"/>
+    <row r="2240" hidden="1"/>
+    <row r="2241" hidden="1"/>
+    <row r="2242" hidden="1"/>
+    <row r="2243" hidden="1"/>
+    <row r="2244" hidden="1"/>
+    <row r="2245" hidden="1"/>
+    <row r="2246" hidden="1"/>
+    <row r="2247" hidden="1"/>
+    <row r="2248" hidden="1"/>
+    <row r="2249" hidden="1"/>
+    <row r="2250" hidden="1"/>
+    <row r="2251" hidden="1"/>
+    <row r="2253" hidden="1"/>
+    <row r="2254" hidden="1"/>
+    <row r="2255" hidden="1"/>
+    <row r="2256" hidden="1"/>
+    <row r="2257" hidden="1"/>
+    <row r="2258" hidden="1"/>
+    <row r="2259" hidden="1"/>
+    <row r="2260" hidden="1"/>
+    <row r="2262" hidden="1"/>
+    <row r="2264" hidden="1"/>
+    <row r="2265" hidden="1"/>
+    <row r="2266" hidden="1"/>
+    <row r="2267" hidden="1"/>
+    <row r="2268" hidden="1"/>
+    <row r="2269" hidden="1"/>
+    <row r="2270" hidden="1"/>
+    <row r="2271" hidden="1"/>
+    <row r="2272" hidden="1"/>
+    <row r="2274" hidden="1"/>
+    <row r="2275" hidden="1"/>
+    <row r="2277" hidden="1"/>
+    <row r="2285" hidden="1"/>
+    <row r="2286" hidden="1"/>
+    <row r="2287" hidden="1"/>
+    <row r="2290" hidden="1"/>
+    <row r="2291" hidden="1"/>
+    <row r="2292" hidden="1"/>
+    <row r="2293" hidden="1"/>
+    <row r="2294" hidden="1"/>
+    <row r="2295" hidden="1"/>
+    <row r="2300" hidden="1"/>
+    <row r="2301" hidden="1"/>
+    <row r="2302" hidden="1"/>
+    <row r="2305" hidden="1"/>
+    <row r="2306" hidden="1"/>
+    <row r="2307" hidden="1"/>
+    <row r="2309" hidden="1"/>
+    <row r="2310" hidden="1"/>
+    <row r="2311" hidden="1"/>
+    <row r="2312" hidden="1"/>
+    <row r="2313" hidden="1"/>
+    <row r="2314" hidden="1"/>
+    <row r="2316" hidden="1"/>
+    <row r="2319" hidden="1"/>
+    <row r="2320" hidden="1"/>
+    <row r="2321" hidden="1"/>
+    <row r="2326" hidden="1"/>
+    <row r="2330" hidden="1"/>
+    <row r="2331" hidden="1"/>
+    <row r="2332" hidden="1"/>
+    <row r="2333" hidden="1"/>
+    <row r="2334" hidden="1"/>
+    <row r="2335" hidden="1"/>
+    <row r="2337" hidden="1"/>
+    <row r="2338" hidden="1"/>
+    <row r="2339" hidden="1"/>
+    <row r="2340" hidden="1"/>
+    <row r="2341" hidden="1"/>
+    <row r="2342" hidden="1"/>
+    <row r="2343" hidden="1"/>
+    <row r="2344" hidden="1"/>
+    <row r="2345" hidden="1"/>
+    <row r="2346" hidden="1"/>
+    <row r="2347" hidden="1"/>
+    <row r="2349" hidden="1"/>
+    <row r="2352" hidden="1"/>
+    <row r="2355" hidden="1"/>
+    <row r="2356" hidden="1"/>
+    <row r="2357" hidden="1"/>
+    <row r="2358" hidden="1"/>
+    <row r="2359" hidden="1"/>
+    <row r="2360" hidden="1"/>
+    <row r="2362" hidden="1"/>
+    <row r="2367" hidden="1"/>
+    <row r="2370" hidden="1"/>
+    <row r="2372" hidden="1"/>
+    <row r="2373" hidden="1"/>
+    <row r="2374" hidden="1"/>
+    <row r="2375" hidden="1"/>
+    <row r="2376" hidden="1"/>
+    <row r="2377" hidden="1"/>
+    <row r="2378" hidden="1"/>
+    <row r="2379" hidden="1"/>
+    <row r="2380" hidden="1"/>
+    <row r="2381" hidden="1"/>
+    <row r="2382" hidden="1"/>
+    <row r="2383" hidden="1"/>
+    <row r="2399" hidden="1"/>
+    <row r="2400" hidden="1"/>
+    <row r="2401" hidden="1"/>
+    <row r="2402" hidden="1"/>
+    <row r="2404" hidden="1"/>
+    <row r="2406" hidden="1"/>
+    <row r="2407" hidden="1"/>
+    <row r="2408" hidden="1"/>
+    <row r="2409" hidden="1"/>
+    <row r="2410" hidden="1"/>
+    <row r="2411" hidden="1"/>
+    <row r="2412" hidden="1"/>
+    <row r="2414" hidden="1"/>
+    <row r="2415" hidden="1"/>
+    <row r="2416" hidden="1"/>
+    <row r="2417" hidden="1"/>
+    <row r="2418" hidden="1"/>
+    <row r="2419" hidden="1"/>
+    <row r="2420" hidden="1"/>
+    <row r="2421" hidden="1"/>
+    <row r="2422" hidden="1"/>
+    <row r="2423" hidden="1"/>
+    <row r="2424" hidden="1"/>
+    <row r="2425" hidden="1"/>
+    <row r="2427" hidden="1"/>
+    <row r="2429" hidden="1"/>
+    <row r="2430" hidden="1"/>
+    <row r="2432" hidden="1"/>
+    <row r="2437" hidden="1"/>
+    <row r="2438" hidden="1"/>
+    <row r="2439" hidden="1"/>
+    <row r="2440" hidden="1"/>
+    <row r="2441" hidden="1"/>
+    <row r="2442" hidden="1"/>
+    <row r="2444" hidden="1"/>
+    <row r="2445" hidden="1"/>
+    <row r="2447" hidden="1"/>
+    <row r="2448" hidden="1"/>
+    <row r="2449" hidden="1"/>
+    <row r="2450" hidden="1"/>
+    <row r="2451" hidden="1"/>
+    <row r="2452" hidden="1"/>
+    <row r="2453" hidden="1"/>
+    <row r="2454" hidden="1"/>
+    <row r="2456" hidden="1"/>
+    <row r="2458" hidden="1"/>
+    <row r="2459" hidden="1"/>
+    <row r="2460" hidden="1"/>
+    <row r="2461" hidden="1"/>
+    <row r="2462" hidden="1"/>
+    <row r="2463" hidden="1"/>
+    <row r="2464" hidden="1"/>
+    <row r="2472" hidden="1"/>
+    <row r="2473" hidden="1"/>
+    <row r="2474" hidden="1"/>
+    <row r="2476" hidden="1"/>
+    <row r="2479" hidden="1"/>
+    <row r="2482" hidden="1"/>
+    <row r="2483" hidden="1"/>
+    <row r="2484" hidden="1"/>
+    <row r="2485" hidden="1"/>
+    <row r="2486" hidden="1"/>
+    <row r="2487" hidden="1"/>
+    <row r="2488" hidden="1"/>
+    <row r="2496" hidden="1"/>
+    <row r="2498" hidden="1"/>
+    <row r="2499" hidden="1"/>
+    <row r="2500" hidden="1"/>
+    <row r="2501" hidden="1"/>
+    <row r="2502" hidden="1"/>
+    <row r="2503" hidden="1"/>
+    <row r="2504" hidden="1"/>
+    <row r="2505" hidden="1"/>
+    <row r="2506" hidden="1"/>
+    <row r="2507" hidden="1"/>
+    <row r="2508" hidden="1"/>
+    <row r="2509" hidden="1"/>
+    <row r="2512" hidden="1"/>
+    <row r="2513" hidden="1"/>
+    <row r="2514" hidden="1"/>
+    <row r="2515" hidden="1"/>
+    <row r="2516" hidden="1"/>
+    <row r="2517" hidden="1"/>
+    <row r="2518" hidden="1"/>
+    <row r="2519" hidden="1"/>
+    <row r="2521" hidden="1"/>
+    <row r="2522" hidden="1"/>
+    <row r="2523" hidden="1"/>
+    <row r="2527" hidden="1"/>
+    <row r="2528" hidden="1"/>
+    <row r="2531" hidden="1"/>
+    <row r="2533" hidden="1"/>
+    <row r="2534" hidden="1"/>
+    <row r="2535" hidden="1"/>
+    <row r="2536" hidden="1"/>
+    <row r="2537" hidden="1"/>
+    <row r="2538" hidden="1"/>
+    <row r="2539" hidden="1"/>
+    <row r="2540" hidden="1"/>
+    <row r="2542" hidden="1"/>
+    <row r="2550" hidden="1"/>
+    <row r="2551" hidden="1"/>
+    <row r="2552" hidden="1"/>
+    <row r="2553" hidden="1"/>
+    <row r="2554" hidden="1"/>
+    <row r="2555" hidden="1"/>
+    <row r="2556" hidden="1"/>
+    <row r="2557" hidden="1"/>
+    <row r="2558" hidden="1"/>
+    <row r="2559" hidden="1"/>
+    <row r="2560" hidden="1"/>
+    <row r="2561" hidden="1"/>
+    <row r="2563" hidden="1"/>
+    <row r="2564" hidden="1"/>
+    <row r="2565" hidden="1"/>
+    <row r="2566" hidden="1"/>
+    <row r="2567" hidden="1"/>
+    <row r="2568" hidden="1"/>
+    <row r="2569" hidden="1"/>
+    <row r="2571" hidden="1"/>
+    <row r="2572" hidden="1"/>
+    <row r="2573" hidden="1"/>
+    <row r="2574" hidden="1"/>
+    <row r="2575" hidden="1"/>
+    <row r="2576" hidden="1"/>
+    <row r="2577" hidden="1"/>
+    <row r="2578" hidden="1"/>
+    <row r="2579" hidden="1"/>
+    <row r="2580" hidden="1"/>
+    <row r="2581" hidden="1"/>
+    <row r="2582" hidden="1"/>
+    <row r="2583" hidden="1"/>
+    <row r="2584" hidden="1"/>
+    <row r="2585" hidden="1"/>
+    <row r="2587" hidden="1"/>
+    <row r="2589" hidden="1"/>
+    <row r="2590" hidden="1"/>
+    <row r="2591" hidden="1"/>
+    <row r="2592" hidden="1"/>
+    <row r="2593" hidden="1"/>
+    <row r="2594" hidden="1"/>
+    <row r="2595" hidden="1"/>
+    <row r="2596" hidden="1"/>
+    <row r="2597" hidden="1"/>
+    <row r="2598" hidden="1"/>
+    <row r="2599" hidden="1"/>
+    <row r="2600" hidden="1"/>
+    <row r="2601" hidden="1"/>
+    <row r="2605" hidden="1"/>
+    <row r="2606" hidden="1"/>
+    <row r="2607" hidden="1"/>
+    <row r="2608" hidden="1"/>
+    <row r="2609" hidden="1"/>
+    <row r="2610" hidden="1"/>
+    <row r="2611" hidden="1"/>
+    <row r="2612" hidden="1"/>
+    <row r="2613" hidden="1"/>
+    <row r="2614" hidden="1"/>
+    <row r="2615" hidden="1"/>
+    <row r="2616" hidden="1"/>
+    <row r="2617" hidden="1"/>
+    <row r="2618" hidden="1"/>
+    <row r="2619" hidden="1"/>
+    <row r="2620" hidden="1"/>
+    <row r="2621" hidden="1"/>
+    <row r="2622" hidden="1"/>
+    <row r="2623" hidden="1"/>
+    <row r="2624" hidden="1"/>
+    <row r="2625" hidden="1"/>
+    <row r="2626" hidden="1"/>
+    <row r="2627" hidden="1"/>
+    <row r="2628" hidden="1"/>
+    <row r="2629" hidden="1"/>
+    <row r="2630" hidden="1"/>
+    <row r="2631" hidden="1"/>
+    <row r="2632" hidden="1"/>
+    <row r="2634" hidden="1"/>
+    <row r="2635" hidden="1"/>
+    <row r="2636" hidden="1"/>
+    <row r="2637" hidden="1"/>
+    <row r="2638" hidden="1"/>
+    <row r="2639" hidden="1"/>
+    <row r="2640" hidden="1"/>
+    <row r="2641" hidden="1"/>
+    <row r="2642" hidden="1"/>
+    <row r="2643" hidden="1"/>
+    <row r="2644" hidden="1"/>
+    <row r="2645" hidden="1"/>
+    <row r="2646" hidden="1"/>
+    <row r="2647" hidden="1"/>
+    <row r="2648" hidden="1"/>
+    <row r="2649" hidden="1"/>
+    <row r="2650" hidden="1"/>
+    <row r="2651" hidden="1"/>
+    <row r="2652" hidden="1"/>
+    <row r="2653" hidden="1"/>
+    <row r="2654" hidden="1"/>
+    <row r="2655" hidden="1"/>
+    <row r="2656" hidden="1"/>
+    <row r="2657" hidden="1"/>
+    <row r="2658" hidden="1"/>
+    <row r="2659" hidden="1"/>
+    <row r="2660" hidden="1"/>
+    <row r="2661" hidden="1"/>
+    <row r="2664" hidden="1"/>
+    <row r="2665" hidden="1"/>
+    <row r="2666" hidden="1"/>
+    <row r="2667" hidden="1"/>
+    <row r="2668" hidden="1"/>
+    <row r="2670" hidden="1"/>
+    <row r="2671" hidden="1"/>
+    <row r="2672" hidden="1"/>
+    <row r="2673" hidden="1"/>
+    <row r="2674" hidden="1"/>
+    <row r="2675" hidden="1"/>
+    <row r="2676" hidden="1"/>
+    <row r="2677" hidden="1"/>
+    <row r="2691" hidden="1"/>
+    <row r="2692" hidden="1"/>
+    <row r="2693" hidden="1"/>
+    <row r="2695" hidden="1"/>
+    <row r="2696" hidden="1"/>
+    <row r="2697" hidden="1"/>
+    <row r="2698" hidden="1"/>
+    <row r="2699" hidden="1"/>
+    <row r="2700" hidden="1"/>
+    <row r="2701" hidden="1"/>
+    <row r="2702" hidden="1"/>
+    <row r="2703" hidden="1"/>
+    <row r="2704" hidden="1"/>
+    <row r="2705" hidden="1"/>
+    <row r="2706" hidden="1"/>
+    <row r="2707" hidden="1"/>
+    <row r="2708" hidden="1"/>
+    <row r="2709" hidden="1"/>
+    <row r="2710" hidden="1"/>
+    <row r="2711" hidden="1"/>
+    <row r="2712" hidden="1"/>
+    <row r="2713" hidden="1"/>
+    <row r="2714" hidden="1"/>
+    <row r="2715" hidden="1"/>
+    <row r="2716" hidden="1"/>
+    <row r="2717" hidden="1"/>
+    <row r="2718" hidden="1"/>
+    <row r="2719" hidden="1"/>
+    <row r="2720" hidden="1"/>
+    <row r="2721" hidden="1"/>
+    <row r="2722" hidden="1"/>
+    <row r="2723" hidden="1"/>
+    <row r="2727" hidden="1"/>
+    <row r="2732" hidden="1"/>
+    <row r="2733" hidden="1"/>
+    <row r="2734" hidden="1"/>
+    <row r="2735" hidden="1"/>
+    <row r="2736" hidden="1"/>
+    <row r="2737" hidden="1"/>
+    <row r="2738" hidden="1"/>
+    <row r="2739" hidden="1"/>
+    <row r="2740" hidden="1"/>
+    <row r="2741" hidden="1"/>
+    <row r="2742" hidden="1"/>
+    <row r="2743" hidden="1"/>
+    <row r="2747" hidden="1"/>
+    <row r="2748" hidden="1"/>
+    <row r="2749" hidden="1"/>
+    <row r="2750" hidden="1"/>
+    <row r="2751" hidden="1"/>
+    <row r="2752" hidden="1"/>
+    <row r="2753" hidden="1"/>
+    <row r="2754" hidden="1"/>
+    <row r="2755" hidden="1"/>
+    <row r="2756" hidden="1"/>
+    <row r="2757" hidden="1"/>
+    <row r="2758" hidden="1"/>
+    <row r="2759" hidden="1"/>
+    <row r="2760" hidden="1"/>
+    <row r="2761" hidden="1"/>
+    <row r="2762" hidden="1"/>
+    <row r="2763" hidden="1"/>
+    <row r="2764" hidden="1"/>
+    <row r="2765" hidden="1"/>
+    <row r="2766" hidden="1"/>
+    <row r="2767" hidden="1"/>
+    <row r="2768" hidden="1"/>
+    <row r="2769" hidden="1"/>
+    <row r="2770" hidden="1"/>
+    <row r="2771" hidden="1"/>
+    <row r="2772" hidden="1"/>
+    <row r="2773" hidden="1"/>
+    <row r="2774" hidden="1"/>
+    <row r="2775" hidden="1"/>
+    <row r="2776" hidden="1"/>
+    <row r="2777" hidden="1"/>
+    <row r="2778" hidden="1"/>
+    <row r="2779" hidden="1"/>
+    <row r="2780" hidden="1"/>
+    <row r="2781" hidden="1"/>
+    <row r="2782" hidden="1"/>
+    <row r="2783" hidden="1"/>
+    <row r="2784" hidden="1"/>
+    <row r="2785" hidden="1"/>
+    <row r="2786" hidden="1"/>
+    <row r="2787" hidden="1"/>
+    <row r="2788" hidden="1"/>
+    <row r="2789" hidden="1"/>
+    <row r="2790" hidden="1"/>
+    <row r="2791" hidden="1"/>
+    <row r="2792" hidden="1"/>
+    <row r="2793" hidden="1"/>
+    <row r="2794" hidden="1"/>
+    <row r="2795" hidden="1"/>
+    <row r="2796" hidden="1"/>
+    <row r="2797" hidden="1"/>
+    <row r="2798" hidden="1"/>
+    <row r="2801" hidden="1"/>
+    <row r="2802" hidden="1"/>
+    <row r="2803" hidden="1"/>
+    <row r="2804" hidden="1"/>
+    <row r="2805" hidden="1"/>
+    <row r="2806" hidden="1"/>
+    <row r="2808" hidden="1"/>
+    <row r="2809" hidden="1"/>
+    <row r="2810" hidden="1"/>
+    <row r="2811" hidden="1"/>
+    <row r="2812" hidden="1"/>
+    <row r="2813" hidden="1"/>
+    <row r="2814" hidden="1"/>
+    <row r="2815" hidden="1"/>
+    <row r="2816" hidden="1"/>
+    <row r="2817" hidden="1"/>
+    <row r="2818" hidden="1"/>
+    <row r="2819" hidden="1"/>
+    <row r="2820" hidden="1"/>
+    <row r="2821" hidden="1"/>
+    <row r="2822" hidden="1"/>
+    <row r="2823" hidden="1"/>
+    <row r="2824" hidden="1"/>
+    <row r="2825" hidden="1"/>
+    <row r="2826" hidden="1"/>
+    <row r="2827" hidden="1"/>
+    <row r="2828" hidden="1"/>
+    <row r="2829" hidden="1"/>
+    <row r="2830" hidden="1"/>
+    <row r="2831" hidden="1"/>
+    <row r="2832" hidden="1"/>
+    <row r="2833" hidden="1"/>
+    <row r="2834" hidden="1"/>
+    <row r="2835" hidden="1"/>
+    <row r="2836" hidden="1"/>
+    <row r="2837" hidden="1"/>
+    <row r="2838" hidden="1"/>
+    <row r="2839" hidden="1"/>
+    <row r="2840" hidden="1"/>
+    <row r="2841" hidden="1"/>
+    <row r="2842" hidden="1"/>
+    <row r="2843" hidden="1"/>
+    <row r="2844" hidden="1"/>
+    <row r="2845" hidden="1"/>
+    <row r="2846" hidden="1"/>
+    <row r="2847" hidden="1"/>
+    <row r="2848" hidden="1"/>
+    <row r="2849" hidden="1"/>
+    <row r="2850" hidden="1"/>
+    <row r="2851" hidden="1"/>
+    <row r="2852" hidden="1"/>
+    <row r="2853" hidden="1"/>
+    <row r="2855" hidden="1"/>
+    <row r="2858" hidden="1"/>
+    <row r="2859" hidden="1"/>
+    <row r="2860" hidden="1"/>
+    <row r="2861" hidden="1"/>
+    <row r="2862" hidden="1"/>
+    <row r="2864" hidden="1"/>
+    <row r="2865" hidden="1"/>
+    <row r="2866" hidden="1"/>
+    <row r="2867" hidden="1"/>
+    <row r="2868" hidden="1"/>
+    <row r="2869" hidden="1"/>
+    <row r="2870" hidden="1"/>
+    <row r="2871" hidden="1"/>
+    <row r="2872" hidden="1"/>
+    <row r="2873" hidden="1"/>
+    <row r="2874" hidden="1"/>
+    <row r="2875" hidden="1"/>
+    <row r="2876" hidden="1"/>
+    <row r="2877" hidden="1"/>
+    <row r="2878" hidden="1"/>
+    <row r="2879" hidden="1"/>
+    <row r="2880" hidden="1"/>
+    <row r="2881" hidden="1"/>
+    <row r="2884" hidden="1"/>
+    <row r="2885" hidden="1"/>
+    <row r="2886" hidden="1"/>
+    <row r="2887" hidden="1"/>
+    <row r="2888" hidden="1"/>
+    <row r="2889" hidden="1"/>
+    <row r="2890" hidden="1"/>
+    <row r="2891" hidden="1"/>
+    <row r="2892" hidden="1"/>
+    <row r="2893" hidden="1"/>
+    <row r="2894" hidden="1"/>
+    <row r="2895" hidden="1"/>
+    <row r="2898" hidden="1"/>
+    <row r="2899" hidden="1"/>
+    <row r="2900" hidden="1"/>
+    <row r="2901" hidden="1"/>
+    <row r="2902" hidden="1"/>
+    <row r="2903" hidden="1"/>
+    <row r="2905" hidden="1"/>
+    <row r="2906" hidden="1"/>
+    <row r="2907" hidden="1"/>
+    <row r="2908" hidden="1"/>
+    <row r="2909" hidden="1"/>
+    <row r="2910" hidden="1"/>
+    <row r="2911" hidden="1"/>
+    <row r="2912" hidden="1"/>
+    <row r="2913" hidden="1"/>
+    <row r="2914" hidden="1"/>
+    <row r="2915" hidden="1"/>
+    <row r="2916" hidden="1"/>
+    <row r="2917" hidden="1"/>
+    <row r="2918" hidden="1"/>
+    <row r="2919" hidden="1"/>
   </sheetData>
-  <autoFilter ref="A1:C1389">
-    <extLst/>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
